--- a/final_equivalant_classes.xlsx
+++ b/final_equivalant_classes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arminkhayyer/PycharmProjects/Adversarial_m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6AE628-2EEB-3348-A149-19B3D48AF3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{35241ED4-1683-A345-852A-B98A85C1D82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" firstSheet="18" activeTab="31"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16560" firstSheet="24" activeTab="37" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,11 @@
     <sheet name="Sheet31" sheetId="32" r:id="rId31"/>
     <sheet name="final_equivalant_classes" sheetId="33" r:id="rId32"/>
     <sheet name="Sheet33" sheetId="34" r:id="rId33"/>
-    <sheet name="final" sheetId="1" r:id="rId34"/>
+    <sheet name="Sheet32" sheetId="35" r:id="rId34"/>
+    <sheet name="Sheet34" sheetId="36" r:id="rId35"/>
+    <sheet name="Sheet35" sheetId="37" r:id="rId36"/>
+    <sheet name="Sheet36" sheetId="38" r:id="rId37"/>
+    <sheet name="final" sheetId="1" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="651" uniqueCount="63">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="718" uniqueCount="65">
   <si>
     <t>&lt;25,0.01&gt;</t>
   </si>
@@ -254,11 +258,17 @@
   <si>
     <t>class five</t>
   </si>
+  <si>
+    <t xml:space="preserve">mean </t>
+  </si>
+  <si>
+    <t>S.D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -720,7 +730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -763,8 +773,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -772,8 +783,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -813,6 +826,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -828,6 +842,1347 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EG GA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6A1-D04A-8BD8-647C24A6C520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mu+1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$F$3:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2959</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3188</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3559</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3684</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6A1-D04A-8BD8-647C24A6C520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SSG GA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$I$3:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2338</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3249</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3288</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1789</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F6A1-D04A-8BD8-647C24A6C520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Mu+mu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$L$4:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F6A1-D04A-8BD8-647C24A6C520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1299352048"/>
+        <c:axId val="1299440000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1299352048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299440000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1299440000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299352048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EFE264-A34A-7045-84D8-40A3590357CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1464,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1649,7 +3004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1784,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1919,7 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2104,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2239,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2374,7 +3729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2509,7 +3864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2644,7 +3999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2779,7 +4134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,7 +4269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3235,7 +4590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3420,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3622,7 +4977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4212,7 +5567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4347,7 +5702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4532,7 +5887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4667,7 +6022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4802,7 +6157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +6292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5241,7 +6596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5376,7 +6731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5511,10 +6866,10 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -5646,7 +7001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5781,15 +7136,642 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2490AF-B6DC-5048-9170-4E32DCE40E92}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1439.0333333333333</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1918.9666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>952932.9298850575</v>
+      </c>
+      <c r="C5" s="1">
+        <v>868859.82643678167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.31971318993772729</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2.3606811409883428</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.2589345479139398E-2</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.5178690958278797E-2</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F767B0C-5494-6A4F-A181-D0BC50FFDB05}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>72.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>219.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>953.88965517241343</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39566.23448275862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.40068998443220327</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4.2674839250404943</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.6338414285590613E-5</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.9267682857118123E-4</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3F0BF-16B6-0941-8CD9-31059DD939FE}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" thickBot="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
+        <v>72.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>953.88965517241343</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5778.3172413793109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-7.5177255086218919E-2</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2.876118924675398</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.7362184166376128E-3</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.6991270265334986</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.4724368332752256E-3</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.0452296421327048</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5884D4DC-6538-D340-8441-5D9715910701}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43171</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1439.0333333333333</v>
+      </c>
+      <c r="E5" s="1">
+        <v>952932.9298850575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>54458</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1815.2666666666667</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1222149.5126436779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>61663</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2055.4333333333334</v>
+      </c>
+      <c r="E7" s="1">
+        <v>878827.42643678142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>61561</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2052.0333333333333</v>
+      </c>
+      <c r="E8" s="1">
+        <v>830078.03333333344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>61618</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2053.9333333333334</v>
+      </c>
+      <c r="E9" s="2">
+        <v>966757.44367816066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8676535.0266666114</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2169133.7566666529</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.2358767590898521</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6.7995733688190466E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.4340651357887815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>140671615.03333333</v>
+      </c>
+      <c r="C15" s="1">
+        <v>145</v>
+      </c>
+      <c r="D15" s="1">
+        <v>970149.06919540232</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2">
+        <v>149348150.05999994</v>
+      </c>
+      <c r="C17" s="2">
+        <v>149</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" activeCellId="4" sqref="C3:C32 F3:F32 I3:I32 L4:L32 L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
@@ -7102,13 +9084,120 @@
         <v>50</v>
       </c>
     </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6">
+        <f xml:space="preserve"> AVERAGE(C3:C32)</f>
+        <v>219.2</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" ref="D34:N34" si="0" xml:space="preserve"> AVERAGE(D3:D32)</f>
+        <v>116.4</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="0"/>
+        <v>1918.9666666666667</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>1439.0333333333333</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>1815.2666666666667</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>2055.4333333333334</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>2052.0333333333333</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="0"/>
+        <v>2053.9333333333334</v>
+      </c>
+      <c r="L34" s="6">
+        <f t="shared" si="0"/>
+        <v>114.06666666666666</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="0"/>
+        <v>72.2</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="0"/>
+        <v>82.233333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5">
+        <f>SQRT(_xlfn.VAR.S(C3:C32))</f>
+        <v>198.91263027459723</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" ref="D35:N35" si="1">SQRT(_xlfn.VAR.S(D3:D32))</f>
+        <v>76.015243480365896</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>77.665063374502679</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="1"/>
+        <v>932.12650774279655</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="1"/>
+        <v>976.18283629915231</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="1"/>
+        <v>1105.5087121518663</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="1"/>
+        <v>937.4579598236827</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="1"/>
+        <v>911.08618326332521</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="1"/>
+        <v>983.23824360027857</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="1"/>
+        <v>60.694789490238506</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" si="1"/>
+        <v>30.885104098455187</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" si="1"/>
+        <v>48.190486493765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7395,7 +9484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7665,7 +9754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7918,7 +10007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8154,7 +10243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8373,7 +10462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
